--- a/BPS_PM문서.xlsx
+++ b/BPS_PM문서.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5392F9C7-9ABE-404B-92C9-C852CAD41C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67975B8-2F9C-4E1F-805E-A0395F0FC809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4E73ECDA-5481-48A3-9C4C-29AF3749AB0E}"/>
+    <workbookView xWindow="11655" yWindow="855" windowWidth="16920" windowHeight="14460" activeTab="4" xr2:uid="{4E73ECDA-5481-48A3-9C4C-29AF3749AB0E}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
   <si>
     <t>일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,6 +298,78 @@
     <t>문서 매뉴얼 추가, 일정표 포맷 소폭 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>서버 파일 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.03.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 구현에 필요한 파일 추가. 기본 연결 설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버/클라 기능 함수 모듈화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버/클라 기능 함수 따로 분리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 데이터 수신 기능 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.03.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 - 데이터 수신 스레드 함수 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 송/수신 이벤트 …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.03.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 송/수신 이벤트 처리 구현, 리모트 데이터 송/수신 테스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 스레드 구조 소폭 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업데이트 전용 스레드 함수 추가, 이벤트 처리 제어 소폭 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1 변경점 취소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변경점 취소, 스레드 함수 및 이벤트 처리 기존의 방식 유지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 송/수신 및 이벤트 …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.03.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 송/수신 업데이트, 스레드 함수 이벤트 처리 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -306,7 +378,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -347,6 +419,13 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="에스코어 드림 7 ExtraBold"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -503,7 +582,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -602,6 +681,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -979,7 +1064,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4821A5-96B3-4573-9D94-04BC3BEB7097}">
   <dimension ref="B2:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -1286,8 +1371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6A8489-8815-4519-8AF0-331CDEB59580}">
   <dimension ref="B1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1312,29 +1397,59 @@
       </c>
     </row>
     <row r="3" spans="2:4">
-      <c r="B3" s="10"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="11"/>
+      <c r="B3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="4" spans="2:4">
-      <c r="B4" s="10"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="11"/>
+      <c r="B4" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="10"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="11"/>
+      <c r="B5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="10"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="11"/>
+      <c r="B6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="10"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="11"/>
+      <c r="B7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="10"/>
@@ -1409,14 +1524,26 @@
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="10"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="11"/>
+      <c r="B22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="33">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="10"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="11"/>
+      <c r="B23" s="34" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="10"/>

--- a/BPS_PM문서.xlsx
+++ b/BPS_PM문서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67975B8-2F9C-4E1F-805E-A0395F0FC809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFFE9EE-97C6-4D5B-B60A-0AB557C590CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11655" yWindow="855" windowWidth="16920" windowHeight="14460" activeTab="4" xr2:uid="{4E73ECDA-5481-48A3-9C4C-29AF3749AB0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4E73ECDA-5481-48A3-9C4C-29AF3749AB0E}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
   <si>
     <t>일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -368,6 +368,70 @@
   </si>
   <si>
     <t>데이터 송/수신 업데이트, 스레드 함수 이벤트 처리 업데이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>헤더 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYERMOVE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 이동에 관한 헤더 값(디폴트 값)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYERSHOOT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 위치, 탄 위치+가속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 공격 시에 처리할 헤더 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYERHIT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 위치, HP 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 탄 피격 시 처리할 헤더 값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -576,13 +640,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,6 +783,36 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1354,14 +1481,107 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A89FF4-E287-452A-A19C-B20CEEE6696C}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="25.77734375" customWidth="1"/>
+    <col min="5" max="5" width="40.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="18.75" thickBot="1"/>
+    <row r="2" spans="2:5" ht="18.75" thickBot="1">
+      <c r="B2" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="D2" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="35"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="37"/>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="35"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="37"/>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="35"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="37"/>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="35"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="37"/>
+    </row>
+    <row r="10" spans="2:5" ht="18.75" thickBot="1">
+      <c r="B10" s="39"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="41"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1371,7 +1591,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6A8489-8815-4519-8AF0-331CDEB59580}">
   <dimension ref="B1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>

--- a/BPS_PM문서.xlsx
+++ b/BPS_PM문서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAFFE9EE-97C6-4D5B-B60A-0AB557C590CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833A93A1-7942-4024-AF7C-F89E306250EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{4E73ECDA-5481-48A3-9C4C-29AF3749AB0E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{4E73ECDA-5481-48A3-9C4C-29AF3749AB0E}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
   <si>
     <t>일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -432,6 +432,18 @@
   </si>
   <si>
     <t>플레이어 탄 피격 시 처리할 헤더 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 사격 데이터 …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.04.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불릿 데이터 추가, 플레이어 사격 시 분기 데이터 송/수신 처리 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1483,8 +1495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A89FF4-E287-452A-A19C-B20CEEE6696C}">
   <dimension ref="B1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1591,8 +1603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6A8489-8815-4519-8AF0-331CDEB59580}">
   <dimension ref="B1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1672,9 +1684,15 @@
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="10"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="11"/>
+      <c r="B8" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="9" spans="2:4">
       <c r="B9" s="10"/>

--- a/BPS_PM문서.xlsx
+++ b/BPS_PM문서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{833A93A1-7942-4024-AF7C-F89E306250EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A84049-721B-4B19-AC96-219C2B60238F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{4E73ECDA-5481-48A3-9C4C-29AF3749AB0E}"/>
+    <workbookView xWindow="11655" yWindow="855" windowWidth="16920" windowHeight="14460" firstSheet="2" activeTab="6" xr2:uid="{4E73ECDA-5481-48A3-9C4C-29AF3749AB0E}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="102">
   <si>
     <t>일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -411,10 +411,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>플레이어 위치, 탄 위치+가속도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>플레이어 공격 시에 처리할 헤더 값</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -444,6 +440,96 @@
   </si>
   <si>
     <t>불릿 데이터 추가, 플레이어 사격 시 분기 데이터 송/수신 처리 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 위치, 탄 종류 및 위치+가속도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 기본 총알</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 총알을 나타내는 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BULLET_BASIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0101</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BULLET_LASER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수무기 - 레이저 총알</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>레이저 총알을 나타내는 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BULLET_GRANADE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수무기 - 수류탄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수류탄을 나타내는 데이터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYERMAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 위치, 맵 정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 맵과 상호작용 시 맵 처리용 헤더 값</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 작업 진행상황
+클라이언트 - 현재 프레임워크 완성되지 않음. 일주일 후에 완성 가능
+서버 - 기본 통신 환경 이벤트 처리까지 완료.
+2. 작업 일정
+클라이언트 - 4/05까지 클라이언트 완성
+서버 - 4/05까지 서버 업데이트 처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 작업 진행상황
+클라이언트 - FSM 진행중. 늦어진 분은 17일까지 업로드할 수 있도록 할 예정.
+서버 - 불릿 데이터 및 그에 관한 플레이어 업데이트 개발 진행중
+2. 작업 일정
+클라이언트 - 4/17까지 클라이언트 완성
+서버 - 4/17까지 불릿 데이터 및 관련 플레이어 업데이트 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -454,7 +540,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -502,6 +588,13 @@
       <family val="2"/>
       <charset val="129"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="에스코어 드림 7 ExtraBold"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -691,7 +784,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,12 +860,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -826,6 +913,24 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1493,10 +1598,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5A89FF4-E287-452A-A19C-B20CEEE6696C}">
-  <dimension ref="B1:E10"/>
+  <dimension ref="B1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1508,94 +1613,184 @@
   <sheetData>
     <row r="1" spans="2:5" ht="18.75" thickBot="1"/>
     <row r="2" spans="2:5" ht="18.75" thickBot="1">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="D2" s="43" t="s">
+      <c r="D2" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="44" t="s">
+      <c r="E2" s="42" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="37" t="s">
+      <c r="E3" s="35" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="37" t="s">
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="33" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="35" t="s">
+      <c r="C5" s="34" t="s">
         <v>76</v>
       </c>
-      <c r="C5" s="36" t="s">
+      <c r="D5" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="E5" s="35" t="s">
         <v>78</v>
       </c>
-      <c r="E5" s="37" t="s">
-        <v>79</v>
-      </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="35"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="37"/>
+      <c r="B6" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C6" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="35"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="37"/>
+      <c r="B7" s="33"/>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="35"/>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="35"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="37"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="35"/>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="35"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="37"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="35"/>
     </row>
     <row r="10" spans="2:5" ht="18.75" thickBot="1">
-      <c r="B10" s="39"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="41"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="39"/>
+    </row>
+    <row r="11" spans="2:5" ht="18.75" thickBot="1"/>
+    <row r="12" spans="2:5" ht="18.75" thickBot="1">
+      <c r="B12" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="35" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="34" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E15" s="35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="33"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="35"/>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="33"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="35"/>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="33"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="35"/>
+    </row>
+    <row r="19" spans="2:5" ht="18.75" thickBot="1">
+      <c r="B19" s="37"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1603,8 +1798,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6A8489-8815-4519-8AF0-331CDEB59580}">
   <dimension ref="B1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1685,13 +1880,13 @@
     </row>
     <row r="8" spans="2:4">
       <c r="B8" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="D8" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" spans="2:4">
@@ -1765,7 +1960,7 @@
       <c r="B22" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="33">
+      <c r="C22" s="31">
         <v>1.1000000000000001</v>
       </c>
       <c r="D22" s="11" t="s">
@@ -1773,7 +1968,7 @@
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="32" t="s">
         <v>59</v>
       </c>
       <c r="C23" s="6">
@@ -2103,10 +2298,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DF22F0-A71C-46B5-A563-DBB69978C428}">
-  <dimension ref="B1:C4"/>
+  <dimension ref="B1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2124,16 +2319,28 @@
       </c>
     </row>
     <row r="3" spans="2:3" ht="280.5" customHeight="1" thickBot="1">
-      <c r="B3" s="22">
+      <c r="B3" s="45">
         <v>220304</v>
       </c>
       <c r="C3" s="24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="18.75" thickBot="1">
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
+    <row r="4" spans="2:3" ht="108.75" thickBot="1">
+      <c r="B4" s="46">
+        <v>220331</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="108.75" thickBot="1">
+      <c r="B5" s="46">
+        <v>220410</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>101</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2151,17 +2358,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" style="27"/>
-    <col min="3" max="3" width="80.77734375" style="27" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="27"/>
+    <col min="1" max="2" width="8.88671875" style="25"/>
+    <col min="3" max="3" width="80.77734375" style="25" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="18.75" thickBot="1"/>
     <row r="2" spans="2:3" ht="18.75" thickBot="1">
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="28" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2169,7 +2376,7 @@
       <c r="B3" s="22">
         <v>220304</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="29" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2177,7 +2384,7 @@
       <c r="B4" s="22">
         <v>220305</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="29" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2185,21 +2392,21 @@
       <c r="B5" s="22">
         <v>220308</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="29" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:3">
       <c r="B6" s="22"/>
-      <c r="C6" s="31"/>
+      <c r="C6" s="29"/>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="22"/>
-      <c r="C7" s="31"/>
+      <c r="C7" s="29"/>
     </row>
     <row r="8" spans="2:3" ht="18.75" thickBot="1">
-      <c r="B8" s="28"/>
-      <c r="C8" s="32"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/BPS_PM문서.xlsx
+++ b/BPS_PM문서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BPS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A84049-721B-4B19-AC96-219C2B60238F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF159F3-3118-4C3D-8FD8-6E530A902DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11655" yWindow="855" windowWidth="16920" windowHeight="14460" firstSheet="2" activeTab="6" xr2:uid="{4E73ECDA-5481-48A3-9C4C-29AF3749AB0E}"/>
+    <workbookView xWindow="11655" yWindow="855" windowWidth="16920" windowHeight="14460" firstSheet="2" activeTab="5" xr2:uid="{4E73ECDA-5481-48A3-9C4C-29AF3749AB0E}"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="107">
   <si>
     <t>일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -530,6 +530,26 @@
 2. 작업 일정
 클라이언트 - 4/17까지 클라이언트 완성
 서버 - 4/17까지 불릿 데이터 및 관련 플레이어 업데이트 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 체력 데이터 …</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 클래스로 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어 관련 정보 클래스로 관리, 로그 체크 클래스 멤버 함수로 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22.04.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.2버전 변경점, 플레이어 클래스 추가, 플레이어 체력 데이터 송/수신 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1798,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC6A8489-8815-4519-8AF0-331CDEB59580}">
   <dimension ref="B1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -1890,9 +1910,15 @@
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="10"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="11"/>
+      <c r="B9" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="10" spans="2:4">
       <c r="B10" s="10"/>
@@ -1979,9 +2005,15 @@
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="10"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="11"/>
+      <c r="B24" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>104</v>
+      </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" s="10"/>
@@ -2073,8 +2105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B0F99B-1D4C-45C8-9667-897D2EABD570}">
   <dimension ref="B1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -2300,7 +2332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0DF22F0-A71C-46B5-A563-DBB69978C428}">
   <dimension ref="B1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
